--- a/tables/crosstab/crosstab_app_safety/revealed, VS regulations.xlsx
+++ b/tables/crosstab/crosstab_app_safety/revealed, VS regulations.xlsx
@@ -438,19 +438,19 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E2">
-        <v>11.79</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>31.45</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>43.24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +461,19 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>4.67</v>
+        <v>4.75</v>
       </c>
       <c r="F3">
-        <v>18.92</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>23.59</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,22 +481,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4">
-        <v>9.09</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>24.08</v>
+        <v>24.25</v>
       </c>
       <c r="G4">
-        <v>33.17</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D5">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>25.55</v>
+        <v>25.75</v>
       </c>
       <c r="F5">
-        <v>74.45</v>
+        <v>74.25</v>
       </c>
       <c r="G5">
         <v>100</v>
